--- a/siv_game/Data/players_data.xlsx
+++ b/siv_game/Data/players_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17220" windowHeight="11925"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1106,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>0.4</v>
@@ -1144,7 +1144,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>0.4</v>
